--- a/bots/crawl_ch/output/toilet_coop_2022-07-17.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-07-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O91"/>
+  <dimension ref="A1:O90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -923,38 +923,38 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 16 Rollen 1 + 1 Aktion 22.00 Schweizer Franken</t>
+          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 16 Rollen 22.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4695684</t>
+          <t>6095356</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier 5-lagig 9 Rollen</t>
+          <t>Tempo Toilettenpapier weiss 4-lagig 32 Rollen</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-5-lagig-9-rollen/p/4695684</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-weiss-4-lagig-32-rollen/p/6095356</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9Rol</t>
+          <t>32Rol</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="F8" t="n">
         <v>4.5</v>
@@ -966,12 +966,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>31.00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.11/1Rol</t>
+          <t>0.97/1Rol</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -996,38 +996,38 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier 5-lagig 9 Rollen 9.95 Schweizer Franken</t>
+          <t>Tempo Toilettenpapier weiss 4-lagig 32 Rollen 31.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6095356</t>
+          <t>4695684</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier weiss 4-lagig 32 Rollen</t>
+          <t>Tempo Toilettenpapier 5-lagig 9 Rollen</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-weiss-4-lagig-32-rollen/p/6095356</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-5-lagig-9-rollen/p/4695684</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>32Rol</t>
+          <t>9Rol</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="F9" t="n">
         <v>4.5</v>
@@ -1039,12 +1039,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>31.00</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.97/1Rol</t>
+          <t>1.11/1Rol</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1069,12 +1069,12 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier weiss 4-lagig 32 Rollen 31.00 Schweizer Franken</t>
+          <t>Tempo Toilettenpapier 5-lagig 9 Rollen 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -1131,50 +1131,50 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3720468</t>
+          <t>6346775</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hakle Toilettenpapier Klassische Sauberkeit weiss 3-lagig 30 Rollen</t>
+          <t>Tempo Premium 4-lagig 24 Rollen</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/hakle-toilettenpapier-klassische-sauberkeit-weiss-3-lagig-30-rollen/p/3720468</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-premium-4-lagig-24-rollen/p/6346775</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>30Rol</t>
+          <t>24Rol</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hakle</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>27.35</t>
+          <t>23.25</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.91/1Rol</t>
+          <t>0.97/1Rol</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1199,55 +1199,55 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Hakle Toilettenpapier Klassische Sauberkeit weiss 3-lagig 30 Rollen 27.35 Schweizer Franken</t>
+          <t>Tempo Premium 4-lagig 24 Rollen 1+1 Aktion 23.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6346775</t>
+          <t>3720468</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tempo Premium 4-lagig 24 Rollen</t>
+          <t>Hakle Toilettenpapier Klassische Sauberkeit weiss 3-lagig 30 Rollen</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-premium-4-lagig-24-rollen/p/6346775</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/hakle-toilettenpapier-klassische-sauberkeit-weiss-3-lagig-30-rollen/p/3720468</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24Rol</t>
+          <t>30Rol</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Hakle</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>23.25</t>
+          <t>27.35</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.97/1Rol</t>
+          <t>0.91/1Rol</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1272,12 +1272,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Tempo Premium 4-lagig 24 Rollen 1+1 Aktion 23.25 Schweizer Franken</t>
+          <t>Hakle Toilettenpapier Klassische Sauberkeit weiss 3-lagig 30 Rollen 27.35 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -1740,7 +1740,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -2365,45 +2365,45 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6818702</t>
+          <t>6478565</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tempo Box Taschentücher 3x100 Stück</t>
+          <t>Super Silk Soft mit Baumwolle Box</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-box-taschentuecher-3x100-stueck/p/6818702</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher-box/super-silk-soft-mit-baumwolle-box/p/6478565</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>300ST</t>
+          <t>80ST</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Super Silk</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2428,55 +2428,55 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher-box']</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Tempo Box Taschentücher 3x100 Stück 32% Aktion 7.95 Schweizer Franken statt 11.85 Schweizer Franken</t>
+          <t>Super Silk Soft mit Baumwolle Box 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6478565</t>
+          <t>6818702</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Super Silk Soft mit Baumwolle Box</t>
+          <t>Tempo Box Taschentücher 3x100 Stück</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher-box/super-silk-soft-mit-baumwolle-box/p/6478565</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-box-taschentuecher-3x100-stueck/p/6818702</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>80ST</t>
+          <t>300ST</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Super Silk</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2501,17 +2501,17 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher-box']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Super Silk Soft mit Baumwolle Box 2.10 Schweizer Franken</t>
+          <t>Tempo Box Taschentücher 3x100 Stück 32% Aktion 7.95 Schweizer Franken statt 11.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -3798,7 +3798,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -4001,151 +4001,151 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6691402</t>
+          <t>6995914</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Super Soft Camomille feucht FSC</t>
+          <t>Tela Futura FSC 3-lagig 30 Rollen</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-camomille-feucht-fsc/p/6691402</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-futura-fsc-3-lagig-30-rollen/p/6995914</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>60ST</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>12</v>
-      </c>
+          <t>30Rol</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Super Soft</t>
+          <t>Tela</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>13.95</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>0.05/1ST</t>
+          <t>0.47/1Rol</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Super Soft Camomille feucht FSC 3.20 Schweizer Franken</t>
+          <t>Tela Futura FSC 3-lagig 30 Rollen 50% Aktion 13.95 Schweizer Franken statt 28.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6995914</t>
+          <t>6691402</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Tela Futura FSC 3-lagig 30 Rollen</t>
+          <t>Super Soft Camomille feucht FSC</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-futura-fsc-3-lagig-30-rollen/p/6995914</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-camomille-feucht-fsc/p/6691402</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>30Rol</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
+          <t>60ST</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>12</v>
+      </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Tela</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>0.47/1Rol</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Tela Futura FSC 3-lagig 30 Rollen 50% Aktion 13.95 Schweizer Franken statt 28.00 Schweizer Franken</t>
+          <t>Super Soft Camomille feucht FSC 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -4218,7 +4218,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -4364,7 +4364,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -4583,135 +4583,135 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6873015</t>
+          <t>6498681</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen</t>
+          <t>subito Haushaltspapier decor 4 Rollen</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/hakle-toilettenpapier-sagenhafte-sauberkeit-3-lagig-12-rollen/p/6873015</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-decor-4-rollen/p/6498681</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>12Rol</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
+          <t>200BLT</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hakle</t>
+          <t>subito</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>10.95</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>0.91/1Rol</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Rolle</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>1Rol</t>
-        </is>
-      </c>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen 10.95 Schweizer Franken</t>
+          <t>subito Haushaltspapier decor 4 Rollen 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6498681</t>
+          <t>6873015</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier decor 4 Rollen</t>
+          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-decor-4-rollen/p/6498681</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/hakle-toilettenpapier-sagenhafte-sauberkeit-3-lagig-12-rollen/p/6873015</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>200BLT</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>1</v>
-      </c>
+          <t>12Rol</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>subito</t>
+          <t>Hakle</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>0.91/1Rol</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Rolle</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>1Rol</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier decor 4 Rollen 5.50 Schweizer Franken</t>
+          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen 10.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -4930,33 +4930,33 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3754631</t>
+          <t>4489512</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher sanft &amp;amp; frei 10x9 Stück</t>
+          <t>Tempo Toilettenpapier weiss 3-lagig 24 Rollen</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-taschentuecher-sanft-frei-10x9-stueck/p/3754631</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-weiss-3-lagig-24-rollen/p/4489512</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>10ST</t>
+          <t>24Rol</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F66" t="n">
         <v>3.5</v>
@@ -4968,42 +4968,42 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>23.25</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>0.40/1ST</t>
+          <t>0.97/1Rol</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher sanft &amp;amp; frei 10x9 Stück 3.95 Schweizer Franken</t>
+          <t>Tempo Toilettenpapier weiss 3-lagig 24 Rollen 1+1 Aktion 23.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -5076,33 +5076,33 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>4489512</t>
+          <t>3754631</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier weiss 3-lagig 24 Rollen</t>
+          <t>Tempo Taschentücher sanft &amp;amp; frei 10x9 Stück</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-weiss-3-lagig-24-rollen/p/4489512</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-taschentuecher-sanft-frei-10x9-stueck/p/3754631</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>24Rol</t>
+          <t>10ST</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F68" t="n">
         <v>3.5</v>
@@ -5114,42 +5114,42 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>23.25</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0.97/1Rol</t>
+          <t>0.40/1ST</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier weiss 3-lagig 24 Rollen 1+1 Aktion 23.25 Schweizer Franken</t>
+          <t>Tempo Taschentücher sanft &amp;amp; frei 10x9 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -5368,7 +5368,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -5425,7 +5425,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -5498,7 +5498,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -5610,7 +5610,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -5683,7 +5683,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -5756,7 +5756,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -5813,7 +5813,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5886,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -5959,7 +5959,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -6032,7 +6032,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -6178,7 +6178,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
@@ -6395,178 +6395,178 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>6636713</t>
+          <t>6996030</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Pampers Feuchttücher Coconut 3x42 Stück</t>
+          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/pampers-feuchttuecher-coconut-3x42-stueck/p/6636713</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/tela-viva-haushaltspapier-3-lagig-4-rollen/p/6996030</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>126ST</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>1</v>
-      </c>
+          <t>200BLT</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
       <c r="F87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Tela</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>10.95</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>0.09/1ST</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Pampers Feuchttücher Coconut 3x42 Stück 10.95 Schweizer Franken</t>
+          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>6996030</t>
+          <t>6727164</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen</t>
+          <t>Wetties Allzwecktücher 80Stück</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/tela-viva-haushaltspapier-3-lagig-4-rollen/p/6996030</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/wetties-allzwecktuecher-80stueck/p/6727164</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>200BLT</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr"/>
+          <t>80ST</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Tela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>0.05/1ST</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen 5.95 Schweizer Franken</t>
+          <t>Wetties Allzwecktücher 80Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>6727164</t>
+          <t>6636712</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Wetties Allzwecktücher 80Stück</t>
+          <t>Pampers Coconut Pure 42 Feuchttücher</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/wetties-allzwecktuecher-80stueck/p/6727164</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/pampers-coconut-pure-42-feuchttuecher/p/6636712</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>80ST</t>
+          <t>42ST</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F89" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>0.05/1ST</t>
+          <t>0.12/1ST</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -6591,156 +6591,83 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Wetties Allzwecktücher 80Stück 3.95 Schweizer Franken</t>
+          <t>Pampers Coconut Pure 42 Feuchttücher 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>6636712</t>
+          <t>6996029</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Pampers Coconut Pure 42 Feuchttücher</t>
+          <t>Tela Lux 4-lagig 6 Rollen</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/pampers-coconut-pure-42-feuchttuecher/p/6636712</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-lux-4-lagig-6-rollen/p/6996029</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>42ST</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>2</v>
-      </c>
+          <t>6Rol</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
       <c r="F90" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Tela</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>0.12/1ST</t>
+          <t>0.93/1Rol</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Pampers Coconut Pure 42 Feuchttücher 4.95 Schweizer Franken</t>
+          <t>Tela Lux 4-lagig 6 Rollen 5.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-07-17 07:01:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>6996029</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Tela Lux 4-lagig 6 Rollen</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-lux-4-lagig-6-rollen/p/6996029</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>6Rol</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Tela</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>0.93/1Rol</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Rolle</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>1Rol</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>Tela Lux 4-lagig 6 Rollen 5.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>2022-07-17 07:01:53</t>
+          <t>2022-07-17 20:57:06</t>
         </is>
       </c>
     </row>
